--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42995,6 +42995,41 @@
         <v>213900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>502000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43030,6 +43030,41 @@
         <v>502000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>695500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43065,6 +43065,41 @@
         <v>695500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>401600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43100,6 +43100,41 @@
         <v>401600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>310000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43135,6 +43135,41 @@
         <v>310000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>854900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43170,6 +43170,41 @@
         <v>854900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>468800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43205,6 +43205,41 @@
         <v>468800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>191700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43240,6 +43240,41 @@
         <v>191700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3115500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43275,6 +43275,41 @@
         <v>3115500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2252700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43310,6 +43310,41 @@
         <v>2252700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>2449700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43345,6 +43345,41 @@
         <v>2449700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1240600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43380,6 +43380,41 @@
         <v>1240600</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>3216400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43415,6 +43415,76 @@
         <v>3216400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1393700</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>3596600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43485,6 +43485,76 @@
         <v>3596600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1603400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1132900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43555,6 +43555,41 @@
         <v>1132900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>406500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43590,6 +43590,41 @@
         <v>406500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1040300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43625,6 +43625,41 @@
         <v>1040300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>988200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43660,6 +43660,41 @@
         <v>988200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1421500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43695,6 +43695,76 @@
         <v>1421500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>830700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>521700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43765,6 +43765,41 @@
         <v>521700</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1094900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43800,6 +43800,41 @@
         <v>1094900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>3394500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2411"/>
+  <dimension ref="A1:I2412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84785,6 +84785,41 @@
         <v>3394500</v>
       </c>
     </row>
+    <row r="2412">
+      <c r="A2412" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2412" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D2412" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E2412" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F2412" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G2412" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H2412" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I2412" t="n">
+        <v>2950500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2412"/>
+  <dimension ref="A1:I2413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84820,6 +84820,41 @@
         <v>2950500</v>
       </c>
     </row>
+    <row r="2413">
+      <c r="A2413" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2413" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D2413" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E2413" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2413" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G2413" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2413" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I2413" t="n">
+        <v>1467300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2413"/>
+  <dimension ref="A1:I2414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84855,6 +84855,41 @@
         <v>1467300</v>
       </c>
     </row>
+    <row r="2414">
+      <c r="A2414" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2414" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D2414" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E2414" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F2414" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G2414" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H2414" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I2414" t="n">
+        <v>901100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2414"/>
+  <dimension ref="A1:I2415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84890,6 +84890,41 @@
         <v>901100</v>
       </c>
     </row>
+    <row r="2415">
+      <c r="A2415" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2415" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D2415" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E2415" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F2415" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G2415" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H2415" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I2415" t="n">
+        <v>1865600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2415"/>
+  <dimension ref="A1:I2416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84925,6 +84925,41 @@
         <v>1865600</v>
       </c>
     </row>
+    <row r="2416">
+      <c r="A2416" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2416" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D2416" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E2416" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F2416" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G2416" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H2416" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I2416" t="n">
+        <v>2072300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2416"/>
+  <dimension ref="A1:I2417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84960,6 +84960,41 @@
         <v>2072300</v>
       </c>
     </row>
+    <row r="2417">
+      <c r="A2417" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2417" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D2417" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E2417" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F2417" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G2417" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2417" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I2417" t="n">
+        <v>1857300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2417"/>
+  <dimension ref="A1:I2418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84995,6 +84995,41 @@
         <v>1857300</v>
       </c>
     </row>
+    <row r="2418">
+      <c r="A2418" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D2418" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E2418" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F2418" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G2418" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H2418" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I2418" t="n">
+        <v>1740800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2418"/>
+  <dimension ref="A1:I2419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85030,6 +85030,41 @@
         <v>1740800</v>
       </c>
     </row>
+    <row r="2419">
+      <c r="A2419" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2419" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D2419" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E2419" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2419" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G2419" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H2419" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I2419" t="n">
+        <v>2052000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2419"/>
+  <dimension ref="A1:I2420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85065,6 +85065,41 @@
         <v>2052000</v>
       </c>
     </row>
+    <row r="2420">
+      <c r="A2420" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2420" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D2420" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E2420" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F2420" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G2420" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H2420" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I2420" t="n">
+        <v>820100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2420"/>
+  <dimension ref="A1:I2421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85100,6 +85100,41 @@
         <v>820100</v>
       </c>
     </row>
+    <row r="2421">
+      <c r="A2421" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2421" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D2421" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E2421" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2421" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G2421" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H2421" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I2421" t="n">
+        <v>1401300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2421"/>
+  <dimension ref="A1:I2422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85135,6 +85135,41 @@
         <v>1401300</v>
       </c>
     </row>
+    <row r="2422">
+      <c r="A2422" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2422" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D2422" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E2422" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F2422" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G2422" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H2422" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I2422" t="n">
+        <v>2054700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2422"/>
+  <dimension ref="A1:I2423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85170,6 +85170,41 @@
         <v>2054700</v>
       </c>
     </row>
+    <row r="2423">
+      <c r="A2423" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2423" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D2423" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E2423" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F2423" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G2423" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H2423" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I2423" t="n">
+        <v>1462500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2423"/>
+  <dimension ref="A1:I2424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85205,6 +85205,41 @@
         <v>1462500</v>
       </c>
     </row>
+    <row r="2424">
+      <c r="A2424" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2424" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D2424" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E2424" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F2424" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G2424" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H2424" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I2424" t="n">
+        <v>1960800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2424"/>
+  <dimension ref="A1:I2425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85240,6 +85240,41 @@
         <v>1960800</v>
       </c>
     </row>
+    <row r="2425">
+      <c r="A2425" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2425" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D2425" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E2425" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F2425" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G2425" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H2425" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I2425" t="n">
+        <v>836600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7167.xlsx
+++ b/data/7167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2425"/>
+  <dimension ref="A1:I2426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85275,6 +85275,41 @@
         <v>836600</v>
       </c>
     </row>
+    <row r="2426">
+      <c r="A2426" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2426" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="D2426" t="inlineStr">
+        <is>
+          <t>JOHOTIN</t>
+        </is>
+      </c>
+      <c r="E2426" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F2426" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G2426" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H2426" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I2426" t="n">
+        <v>428400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
